--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -294,10 +294,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -3924,13 +3924,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>77</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12654" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12654" uniqueCount="1073">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -435,7 +435,7 @@
     <t>Extension</t>
   </si>
   <si>
-    <t>Extensión para almacenar el sexo biologico del paciente</t>
+    <t>Extensión para almacenar el sexo biológico del profesional</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -462,7 +462,7 @@
 </t>
   </si>
   <si>
-    <t>Identidad De Genero</t>
+    <t>Identidad De Género</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -492,10 +492,10 @@
 </t>
   </si>
   <si>
-    <t>Codigo de Paises</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye códigos de paises</t>
+    <t>Código de Países</t>
+  </si>
+  <si>
+    <t>Esta extensión incluye códigos de países</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -535,7 +535,7 @@
 Corresponde a tres slices:</t>
   </si>
   <si>
-    <t>El identificador oficial para cada prestador en Chile es el Registro Nacional de Prestadores Institucionales (NRPI). Ademas existe el identificador nacional chileno, el Registro Único Nacional (RUN). Y por ultimo puede ingresar un numero de pasaporte y un ID extra para cada prestador.</t>
+    <t>El identificador oficial para cada prestador en Chile es el Registro Nacional de Prestadores Institucionales (NRPI). Además, existe el identificador nacional chileno, el Registro Único Nacional (RUN). Y por último puede ingresar un número de pasaporte y un ID extra para cada prestador.</t>
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.</t>
@@ -903,7 +903,7 @@
     <t>Define la url del endPoint a la cual apunta la API, para validar el RUN</t>
   </si>
   <si>
-    <t>Se define el el endPoint al cual debe apuntar a la API, con el fin de validar que el numero de RUN ingresado exista y que sea correcto. Por momento se usará la url = "http://api_run/run"</t>
+    <t>Se define el el endPoint al cual debe apuntar a la API, con el fin de validar que el número de RUN ingresado exista y que sea correcto. Por momento se usará la url = "http://api_run/run"</t>
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
@@ -1355,7 +1355,7 @@
     <t>Uso del nombre del prestador</t>
   </si>
   <si>
-    <t>Este es el uso que se le da al nombre del Prestador considerando que puede ser nombre oficial, temporal, seudonimo, entre otros, Pero por motivos legales este uso es Oficial</t>
+    <t>Este es el uso que se le da al nombre del Prestador considerando que puede ser nombre oficial, temporal, seudónimo, entre otros, Pero por motivos legales este uso es Oficial</t>
   </si>
   <si>
     <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
@@ -1416,7 +1416,7 @@
     <t>Primer apellido del profesional</t>
   </si>
   <si>
-    <t>Se debe ingresar el primer apellido, segun indica su identificacion personal</t>
+    <t>Se debe ingresar el primer apellido, según indica su identificacion personal</t>
   </si>
   <si>
     <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
@@ -1780,7 +1780,7 @@
     <t>Definición del tipo de domicilio home | work | temp | old (requerido)</t>
   </si>
   <si>
-    <t>Se especifica el tipo de dirección notificada. Esto debe ser segun los códigos definidos por HL7 FHIR</t>
+    <t>Se especifica el tipo de dirección notificada. Esto debe ser segn los códigos definidos por HL7 FHIR</t>
   </si>
   <si>
     <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
@@ -2094,9 +2094,6 @@
   </si>
   <si>
     <t>Practitioner.address.country.extension</t>
-  </si>
-  <si>
-    <t>Código de Países</t>
   </si>
   <si>
     <t>Practitioner.address.country.extension:paises</t>
@@ -2216,14 +2213,14 @@
     <t>Certificados, títulos y/o Especialidad(es) obtenidas por el Prestador</t>
   </si>
   <si>
-    <t>Certificados, titulos y/o especialidades que el Prestador pueda validar</t>
+    <t>Certificados, títulos y/o especialidades que el Prestador pueda validar</t>
   </si>
   <si>
     <t xml:space="preserve">value:identifier.value}
 </t>
   </si>
   <si>
-    <t>Debido a que los profesisonales de la salud pueden tener titulo y ademas poseer especialidades, es que se ha realizado un slice, con el fin de poder diferenciarlos. El de Certificados tiene identifier.value el valor cert y el slice de especialidad el valor esp</t>
+    <t>Debido a que los profesionales de la salud pueden tener título y ademas poseer especialidades, es que se ha realizado un slice, con el fin de poder diferenciarlos. El de Certificados tiene identifier.value el valor cert y el slice de especialidad el valor esp</t>
   </si>
   <si>
     <t>CER?</t>
@@ -2466,10 +2463,10 @@
     <t>Practitioner.qualification.code.coding.system</t>
   </si>
   <si>
-    <t>El sistema sobre el cual se verificarán los titulos o certificados de los Prestadores</t>
-  </si>
-  <si>
-    <t>La url sobre la cual se encuentra el endPoint para el acceso a  los códigos de titulos y/o certificados de prestadores. El perfil especifica que se debe usar la siguiente url:  "https://api.minsal.cl/v1/catalogos/profesiones/"</t>
+    <t>El sistema sobre el cual se verificarán los títulos o certificados de los Prestadores</t>
+  </si>
+  <si>
+    <t>La url sobre la cual se encuentra el endPoint para el acceso a  los códigos de títulos y/o certificados de prestadores. El perfil especifica que se debe usar la siguiente url:  "https://api.minsal.cl/v1/catalogos/profesiones/"</t>
   </si>
   <si>
     <t>Practitioner.qualification:TituloProfesional.code.coding.version</t>
@@ -2484,10 +2481,10 @@
     <t>Practitioner.qualification.code.coding.code</t>
   </si>
   <si>
-    <t>Nombre del titulo o certificado agregado</t>
-  </si>
-  <si>
-    <t>Nombre del titulo o certificado agregado. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
+    <t>Nombre del título o certificado agregado</t>
+  </si>
+  <si>
+    <t>Nombre del título o certificado agregado. Agregar un poco más de información acerca del item que se está agregando.</t>
   </si>
   <si>
     <t>Practitioner.qualification:TituloProfesional.code.coding.display</t>
@@ -2791,7 +2788,7 @@
     <t>Nombre de la especialidad</t>
   </si>
   <si>
-    <t>Nombre la especialidad agregada. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
+    <t>Nombre la especialidad agregada. Agregar un poco más de información acerca del item que se está agregando.</t>
   </si>
   <si>
     <t>Practitioner.qualification:EspecialidadMedica.code.coding.userSelected</t>
@@ -2935,7 +2932,7 @@
     <t>Nombre de la subespecialidad</t>
   </si>
   <si>
-    <t>Nombre la subespecialidad agregada. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
+    <t>Nombre la subespecialidad agregada. Agregar un poco más de información acerca del item que se está agregando.</t>
   </si>
   <si>
     <t>Practitioner.qualification:Subespecialidad.code.coding.userSelected</t>
@@ -3664,7 +3661,7 @@
     <col min="26" max="26" width="73.1640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.12109375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="225.41796875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="224.48046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -20004,10 +20001,10 @@
         <v>133</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>675</v>
+        <v>152</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>675</v>
+        <v>152</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -20085,13 +20082,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>674</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -20199,10 +20196,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20311,10 +20308,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20340,14 +20337,14 @@
         <v>305</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="M147" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>77</v>
@@ -20360,43 +20357,43 @@
         <v>77</v>
       </c>
       <c r="T147" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF147" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>78</v>
@@ -20411,7 +20408,7 @@
         <v>100</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>503</v>
@@ -20425,10 +20422,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20454,14 +20451,14 @@
         <v>108</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -20489,11 +20486,11 @@
         <v>196</v>
       </c>
       <c r="Y148" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="Z148" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="Z148" t="s" s="2">
-        <v>691</v>
-      </c>
       <c r="AA148" t="s" s="2">
         <v>77</v>
       </c>
@@ -20510,7 +20507,7 @@
         <v>77</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>78</v>
@@ -20525,13 +20522,13 @@
         <v>100</v>
       </c>
       <c r="AK148" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AL148" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="AL148" t="s" s="2">
+      <c r="AM148" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>77</v>
@@ -20539,10 +20536,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20565,17 +20562,17 @@
         <v>89</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="L149" t="s" s="2">
+      <c r="M149" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>77</v>
@@ -20624,7 +20621,7 @@
         <v>77</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>78</v>
@@ -20639,13 +20636,13 @@
         <v>100</v>
       </c>
       <c r="AK149" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AL149" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="AL149" t="s" s="2">
+      <c r="AM149" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>77</v>
@@ -20653,10 +20650,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20679,17 +20676,17 @@
         <v>77</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="L150" t="s" s="2">
+      <c r="M150" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>77</v>
@@ -20738,7 +20735,7 @@
         <v>77</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -20756,10 +20753,10 @@
         <v>77</v>
       </c>
       <c r="AL150" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="AM150" t="s" s="2">
         <v>708</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>709</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>77</v>
@@ -20767,10 +20764,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20793,13 +20790,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>711</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>712</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>713</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -20838,10 +20835,10 @@
         <v>77</v>
       </c>
       <c r="AB151" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AC151" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="AD151" t="s" s="2">
         <v>77</v>
@@ -20850,7 +20847,7 @@
         <v>137</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>78</v>
@@ -20865,13 +20862,13 @@
         <v>100</v>
       </c>
       <c r="AK151" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AL151" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="AL151" t="s" s="2">
+      <c r="AM151" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>77</v>
@@ -20879,10 +20876,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20991,10 +20988,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21105,14 +21102,14 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -21134,10 +21131,10 @@
         <v>133</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="N154" t="s" s="2">
         <v>158</v>
@@ -21192,7 +21189,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>78</v>
@@ -21221,10 +21218,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21250,14 +21247,14 @@
         <v>163</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>728</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>77</v>
@@ -21306,7 +21303,7 @@
         <v>77</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>78</v>
@@ -21324,7 +21321,7 @@
         <v>77</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>77</v>
@@ -21335,10 +21332,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21364,10 +21361,10 @@
         <v>203</v>
       </c>
       <c r="L156" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -21394,11 +21391,11 @@
         <v>77</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Y156" s="2"/>
       <c r="Z156" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>77</v>
@@ -21416,7 +21413,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>88</v>
@@ -21434,10 +21431,10 @@
         <v>77</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>77</v>
@@ -21445,10 +21442,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21474,14 +21471,14 @@
         <v>305</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>77</v>
@@ -21530,7 +21527,7 @@
         <v>77</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>78</v>
@@ -21548,10 +21545,10 @@
         <v>77</v>
       </c>
       <c r="AL157" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AM157" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>77</v>
@@ -21559,10 +21556,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21588,10 +21585,10 @@
         <v>314</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>745</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -21642,7 +21639,7 @@
         <v>77</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>78</v>
@@ -21660,7 +21657,7 @@
         <v>77</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>77</v>
@@ -21671,13 +21668,13 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="C159" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="C159" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>77</v>
@@ -21699,13 +21696,13 @@
         <v>77</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L159" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>749</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>750</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21756,7 +21753,7 @@
         <v>77</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>78</v>
@@ -21771,13 +21768,13 @@
         <v>100</v>
       </c>
       <c r="AK159" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AL159" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="AL159" t="s" s="2">
+      <c r="AM159" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>77</v>
@@ -21785,10 +21782,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21897,10 +21894,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22007,13 +22004,13 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="C162" t="s" s="2">
         <v>753</v>
-      </c>
-      <c r="B162" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="C162" t="s" s="2">
-        <v>754</v>
       </c>
       <c r="D162" t="s" s="2">
         <v>77</v>
@@ -22035,13 +22032,13 @@
         <v>77</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>755</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>756</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>757</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -22121,14 +22118,14 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
@@ -22150,10 +22147,10 @@
         <v>133</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="N163" t="s" s="2">
         <v>158</v>
@@ -22208,7 +22205,7 @@
         <v>77</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>78</v>
@@ -22237,10 +22234,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22266,14 +22263,14 @@
         <v>163</v>
       </c>
       <c r="L164" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>728</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>77</v>
@@ -22322,7 +22319,7 @@
         <v>77</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>78</v>
@@ -22340,7 +22337,7 @@
         <v>77</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>77</v>
@@ -22351,10 +22348,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="B165" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="B165" t="s" s="2">
-        <v>761</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22463,10 +22460,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="B166" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="B166" t="s" s="2">
-        <v>763</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22577,10 +22574,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="B167" t="s" s="2">
         <v>764</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>765</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22693,10 +22690,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="B168" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="B168" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22809,10 +22806,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="B169" t="s" s="2">
         <v>768</v>
-      </c>
-      <c r="B169" t="s" s="2">
-        <v>769</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22838,13 +22835,13 @@
         <v>102</v>
       </c>
       <c r="L169" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="M169" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M169" t="s" s="2">
+      <c r="N169" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>287</v>
@@ -22925,10 +22922,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="B170" t="s" s="2">
         <v>773</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>774</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22954,10 +22951,10 @@
         <v>178</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="N170" t="s" s="2">
         <v>297</v>
@@ -22971,7 +22968,7 @@
         <v>77</v>
       </c>
       <c r="S170" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="T170" t="s" s="2">
         <v>298</v>
@@ -23039,10 +23036,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="B171" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="B171" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23151,10 +23148,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="B172" t="s" s="2">
         <v>779</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>780</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23265,10 +23262,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23294,10 +23291,10 @@
         <v>203</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -23328,7 +23325,7 @@
       </c>
       <c r="Y173" s="2"/>
       <c r="Z173" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AA173" t="s" s="2">
         <v>77</v>
@@ -23346,7 +23343,7 @@
         <v>77</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>88</v>
@@ -23364,10 +23361,10 @@
         <v>77</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>77</v>
@@ -23375,10 +23372,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="B174" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="B174" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23487,10 +23484,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="B175" t="s" s="2">
         <v>785</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>786</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23601,10 +23598,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="B176" t="s" s="2">
         <v>787</v>
-      </c>
-      <c r="B176" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23717,10 +23714,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="B177" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="B177" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23829,10 +23826,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="B178" t="s" s="2">
         <v>791</v>
-      </c>
-      <c r="B178" t="s" s="2">
-        <v>792</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23943,10 +23940,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="B179" t="s" s="2">
         <v>793</v>
-      </c>
-      <c r="B179" t="s" s="2">
-        <v>794</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23972,10 +23969,10 @@
         <v>102</v>
       </c>
       <c r="L179" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="M179" t="s" s="2">
         <v>795</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>796</v>
       </c>
       <c r="N179" t="s" s="2">
         <v>233</v>
@@ -24059,10 +24056,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="B180" t="s" s="2">
         <v>797</v>
-      </c>
-      <c r="B180" t="s" s="2">
-        <v>798</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24173,10 +24170,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="B181" t="s" s="2">
         <v>799</v>
-      </c>
-      <c r="B181" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24202,10 +24199,10 @@
         <v>108</v>
       </c>
       <c r="L181" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
@@ -24287,10 +24284,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="B182" t="s" s="2">
         <v>803</v>
-      </c>
-      <c r="B182" t="s" s="2">
-        <v>804</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24316,10 +24313,10 @@
         <v>178</v>
       </c>
       <c r="L182" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="M182" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
@@ -24401,10 +24398,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="B183" t="s" s="2">
         <v>805</v>
-      </c>
-      <c r="B183" t="s" s="2">
-        <v>806</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24517,10 +24514,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="B184" t="s" s="2">
         <v>807</v>
-      </c>
-      <c r="B184" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24546,7 +24543,7 @@
         <v>178</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M184" t="s" s="2">
         <v>276</v>
@@ -24633,10 +24630,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24662,14 +24659,14 @@
         <v>305</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>77</v>
@@ -24718,7 +24715,7 @@
         <v>77</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>78</v>
@@ -24736,10 +24733,10 @@
         <v>77</v>
       </c>
       <c r="AL185" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AM185" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>77</v>
@@ -24747,10 +24744,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="B186" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="B186" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24859,10 +24856,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="B187" t="s" s="2">
         <v>814</v>
-      </c>
-      <c r="B187" t="s" s="2">
-        <v>815</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24973,10 +24970,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="B188" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="B188" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24999,16 +24996,16 @@
         <v>89</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="M188" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
@@ -25058,25 +25055,25 @@
         <v>77</v>
       </c>
       <c r="AF188" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI188" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="AG188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH188" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI188" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK188" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AL188" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="AL188" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>77</v>
@@ -25087,10 +25084,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="B189" t="s" s="2">
         <v>826</v>
-      </c>
-      <c r="B189" t="s" s="2">
-        <v>827</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25113,69 +25110,69 @@
         <v>89</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L189" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="M189" t="s" s="2">
         <v>828</v>
       </c>
-      <c r="M189" t="s" s="2">
+      <c r="N189" t="s" s="2">
         <v>829</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>830</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q189" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="R189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF189" t="s" s="2">
         <v>831</v>
       </c>
-      <c r="R189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF189" t="s" s="2">
-        <v>832</v>
-      </c>
       <c r="AG189" t="s" s="2">
         <v>78</v>
       </c>
@@ -25183,16 +25180,16 @@
         <v>88</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK189" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="AL189" t="s" s="2">
         <v>833</v>
-      </c>
-      <c r="AL189" t="s" s="2">
-        <v>834</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>77</v>
@@ -25203,10 +25200,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25232,10 +25229,10 @@
         <v>314</v>
       </c>
       <c r="L190" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>837</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -25286,7 +25283,7 @@
         <v>77</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>78</v>
@@ -25304,7 +25301,7 @@
         <v>77</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>77</v>
@@ -25315,10 +25312,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="B191" t="s" s="2">
         <v>838</v>
-      </c>
-      <c r="B191" t="s" s="2">
-        <v>839</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25427,10 +25424,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="B192" t="s" s="2">
         <v>840</v>
-      </c>
-      <c r="B192" t="s" s="2">
-        <v>841</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25541,10 +25538,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="B193" t="s" s="2">
         <v>842</v>
-      </c>
-      <c r="B193" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25570,13 +25567,13 @@
         <v>178</v>
       </c>
       <c r="L193" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="M193" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="M193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>845</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>846</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
@@ -25626,16 +25623,16 @@
         <v>77</v>
       </c>
       <c r="AF193" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI193" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>848</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>100</v>
@@ -25655,10 +25652,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="B194" t="s" s="2">
         <v>849</v>
-      </c>
-      <c r="B194" t="s" s="2">
-        <v>850</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -25684,13 +25681,13 @@
         <v>102</v>
       </c>
       <c r="L194" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="M194" t="s" s="2">
         <v>851</v>
       </c>
-      <c r="M194" t="s" s="2">
+      <c r="N194" t="s" s="2">
         <v>852</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>853</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
@@ -25719,28 +25716,28 @@
         <v>365</v>
       </c>
       <c r="Y194" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="Z194" t="s" s="2">
         <v>854</v>
       </c>
-      <c r="Z194" t="s" s="2">
+      <c r="AA194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF194" t="s" s="2">
         <v>855</v>
-      </c>
-      <c r="AA194" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB194" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC194" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD194" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE194" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF194" t="s" s="2">
-        <v>856</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>78</v>
@@ -25769,10 +25766,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="B195" t="s" s="2">
         <v>857</v>
-      </c>
-      <c r="B195" t="s" s="2">
-        <v>858</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -25798,13 +25795,13 @@
         <v>163</v>
       </c>
       <c r="L195" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="M195" t="s" s="2">
         <v>859</v>
       </c>
-      <c r="M195" t="s" s="2">
+      <c r="N195" t="s" s="2">
         <v>860</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>861</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" t="s" s="2">
@@ -25854,7 +25851,7 @@
         <v>77</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>78</v>
@@ -25872,7 +25869,7 @@
         <v>77</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>77</v>
@@ -25883,10 +25880,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="B196" t="s" s="2">
         <v>864</v>
-      </c>
-      <c r="B196" t="s" s="2">
-        <v>865</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -25912,13 +25909,13 @@
         <v>178</v>
       </c>
       <c r="L196" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="N196" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" t="s" s="2">
@@ -25968,7 +25965,7 @@
         <v>77</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>78</v>
@@ -25997,13 +25994,13 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="C197" t="s" s="2">
         <v>869</v>
-      </c>
-      <c r="B197" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="C197" t="s" s="2">
-        <v>870</v>
       </c>
       <c r="D197" t="s" s="2">
         <v>77</v>
@@ -26025,13 +26022,13 @@
         <v>77</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L197" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="M197" t="s" s="2">
         <v>871</v>
-      </c>
-      <c r="M197" t="s" s="2">
-        <v>872</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -26082,7 +26079,7 @@
         <v>77</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>78</v>
@@ -26097,13 +26094,13 @@
         <v>100</v>
       </c>
       <c r="AK197" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AL197" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="AL197" t="s" s="2">
+      <c r="AM197" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="AM197" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="AN197" t="s" s="2">
         <v>77</v>
@@ -26111,10 +26108,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26223,10 +26220,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26337,14 +26334,14 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
@@ -26366,10 +26363,10 @@
         <v>133</v>
       </c>
       <c r="L200" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M200" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="N200" t="s" s="2">
         <v>158</v>
@@ -26424,7 +26421,7 @@
         <v>77</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>78</v>
@@ -26453,10 +26450,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26482,14 +26479,14 @@
         <v>163</v>
       </c>
       <c r="L201" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="M201" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="M201" t="s" s="2">
-        <v>728</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>77</v>
@@ -26538,7 +26535,7 @@
         <v>77</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>78</v>
@@ -26556,7 +26553,7 @@
         <v>77</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AM201" t="s" s="2">
         <v>77</v>
@@ -26567,10 +26564,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -26679,10 +26676,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -26793,10 +26790,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -26909,10 +26906,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27025,10 +27022,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27054,13 +27051,13 @@
         <v>102</v>
       </c>
       <c r="L206" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="M206" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M206" t="s" s="2">
+      <c r="N206" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>287</v>
@@ -27141,10 +27138,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27170,10 +27167,10 @@
         <v>178</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="N207" t="s" s="2">
         <v>297</v>
@@ -27187,7 +27184,7 @@
         <v>77</v>
       </c>
       <c r="S207" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="T207" t="s" s="2">
         <v>298</v>
@@ -27255,10 +27252,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27367,10 +27364,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27481,10 +27478,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -27510,10 +27507,10 @@
         <v>203</v>
       </c>
       <c r="L210" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="M210" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -27544,7 +27541,7 @@
       </c>
       <c r="Y210" s="2"/>
       <c r="Z210" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>77</v>
@@ -27562,7 +27559,7 @@
         <v>77</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>88</v>
@@ -27580,10 +27577,10 @@
         <v>77</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>77</v>
@@ -27591,10 +27588,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -27703,10 +27700,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -27817,10 +27814,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -27933,10 +27930,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28045,10 +28042,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28159,10 +28156,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28188,10 +28185,10 @@
         <v>102</v>
       </c>
       <c r="L216" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="M216" t="s" s="2">
         <v>895</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>896</v>
       </c>
       <c r="N216" t="s" s="2">
         <v>233</v>
@@ -28275,10 +28272,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28389,10 +28386,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28503,10 +28500,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -28532,10 +28529,10 @@
         <v>178</v>
       </c>
       <c r="L219" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="M219" t="s" s="2">
         <v>900</v>
-      </c>
-      <c r="M219" t="s" s="2">
-        <v>901</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" t="s" s="2">
@@ -28617,10 +28614,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -28733,10 +28730,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -28762,7 +28759,7 @@
         <v>178</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M221" t="s" s="2">
         <v>276</v>
@@ -28849,10 +28846,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -28878,14 +28875,14 @@
         <v>305</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>77</v>
@@ -28934,7 +28931,7 @@
         <v>77</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>78</v>
@@ -28952,10 +28949,10 @@
         <v>77</v>
       </c>
       <c r="AL222" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AM222" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="AM222" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="AN222" t="s" s="2">
         <v>77</v>
@@ -28963,10 +28960,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29075,10 +29072,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29189,10 +29186,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -29215,16 +29212,16 @@
         <v>89</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="L225" t="s" s="2">
+      <c r="M225" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="M225" t="s" s="2">
+      <c r="N225" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
@@ -29274,25 +29271,25 @@
         <v>77</v>
       </c>
       <c r="AF225" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI225" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="AG225" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH225" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI225" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK225" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AL225" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="AL225" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="AM225" t="s" s="2">
         <v>77</v>
@@ -29303,10 +29300,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -29329,69 +29326,69 @@
         <v>89</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L226" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="M226" t="s" s="2">
         <v>828</v>
       </c>
-      <c r="M226" t="s" s="2">
+      <c r="N226" t="s" s="2">
         <v>829</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>830</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q226" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="R226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF226" t="s" s="2">
         <v>831</v>
       </c>
-      <c r="R226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF226" t="s" s="2">
-        <v>832</v>
-      </c>
       <c r="AG226" t="s" s="2">
         <v>78</v>
       </c>
@@ -29399,16 +29396,16 @@
         <v>88</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AJ226" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK226" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="AL226" t="s" s="2">
         <v>833</v>
-      </c>
-      <c r="AL226" t="s" s="2">
-        <v>834</v>
       </c>
       <c r="AM226" t="s" s="2">
         <v>77</v>
@@ -29419,10 +29416,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -29448,10 +29445,10 @@
         <v>314</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -29502,7 +29499,7 @@
         <v>77</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>78</v>
@@ -29520,7 +29517,7 @@
         <v>77</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>77</v>
@@ -29531,10 +29528,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -29643,10 +29640,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -29757,10 +29754,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -29786,13 +29783,13 @@
         <v>178</v>
       </c>
       <c r="L230" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="M230" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="M230" t="s" s="2">
+      <c r="N230" t="s" s="2">
         <v>845</v>
-      </c>
-      <c r="N230" t="s" s="2">
-        <v>846</v>
       </c>
       <c r="O230" s="2"/>
       <c r="P230" t="s" s="2">
@@ -29842,16 +29839,16 @@
         <v>77</v>
       </c>
       <c r="AF230" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="AG230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH230" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI230" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="AG230" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH230" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI230" t="s" s="2">
-        <v>848</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>100</v>
@@ -29871,10 +29868,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -29900,13 +29897,13 @@
         <v>102</v>
       </c>
       <c r="L231" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="M231" t="s" s="2">
         <v>851</v>
       </c>
-      <c r="M231" t="s" s="2">
+      <c r="N231" t="s" s="2">
         <v>852</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>853</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
@@ -29935,28 +29932,28 @@
         <v>365</v>
       </c>
       <c r="Y231" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="Z231" t="s" s="2">
         <v>854</v>
       </c>
-      <c r="Z231" t="s" s="2">
+      <c r="AA231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF231" t="s" s="2">
         <v>855</v>
-      </c>
-      <c r="AA231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF231" t="s" s="2">
-        <v>856</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>78</v>
@@ -29985,10 +29982,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -30014,13 +30011,13 @@
         <v>163</v>
       </c>
       <c r="L232" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="M232" t="s" s="2">
         <v>859</v>
       </c>
-      <c r="M232" t="s" s="2">
+      <c r="N232" t="s" s="2">
         <v>860</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>861</v>
       </c>
       <c r="O232" s="2"/>
       <c r="P232" t="s" s="2">
@@ -30070,7 +30067,7 @@
         <v>77</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>78</v>
@@ -30088,7 +30085,7 @@
         <v>77</v>
       </c>
       <c r="AL232" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AM232" t="s" s="2">
         <v>77</v>
@@ -30099,10 +30096,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -30128,13 +30125,13 @@
         <v>178</v>
       </c>
       <c r="L233" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="N233" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="O233" s="2"/>
       <c r="P233" t="s" s="2">
@@ -30184,7 +30181,7 @@
         <v>77</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>78</v>
@@ -30213,13 +30210,13 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="C234" t="s" s="2">
         <v>919</v>
-      </c>
-      <c r="B234" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="C234" t="s" s="2">
-        <v>920</v>
       </c>
       <c r="D234" t="s" s="2">
         <v>77</v>
@@ -30241,13 +30238,13 @@
         <v>77</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L234" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="M234" t="s" s="2">
         <v>921</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>922</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -30298,7 +30295,7 @@
         <v>77</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>78</v>
@@ -30313,13 +30310,13 @@
         <v>100</v>
       </c>
       <c r="AK234" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AL234" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="AL234" t="s" s="2">
+      <c r="AM234" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="AM234" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="AN234" t="s" s="2">
         <v>77</v>
@@ -30327,10 +30324,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -30439,10 +30436,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -30553,14 +30550,14 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" t="s" s="2">
@@ -30582,10 +30579,10 @@
         <v>133</v>
       </c>
       <c r="L237" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M237" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="N237" t="s" s="2">
         <v>158</v>
@@ -30640,7 +30637,7 @@
         <v>77</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>78</v>
@@ -30669,10 +30666,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -30698,14 +30695,14 @@
         <v>163</v>
       </c>
       <c r="L238" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="M238" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="M238" t="s" s="2">
-        <v>728</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P238" t="s" s="2">
         <v>77</v>
@@ -30754,7 +30751,7 @@
         <v>77</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>78</v>
@@ -30772,7 +30769,7 @@
         <v>77</v>
       </c>
       <c r="AL238" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AM238" t="s" s="2">
         <v>77</v>
@@ -30783,10 +30780,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -30895,10 +30892,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -31009,10 +31006,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -31125,10 +31122,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -31241,10 +31238,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -31270,13 +31267,13 @@
         <v>102</v>
       </c>
       <c r="L243" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="M243" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M243" t="s" s="2">
+      <c r="N243" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>287</v>
@@ -31357,10 +31354,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -31386,10 +31383,10 @@
         <v>178</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="N244" t="s" s="2">
         <v>297</v>
@@ -31403,7 +31400,7 @@
         <v>77</v>
       </c>
       <c r="S244" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="T244" t="s" s="2">
         <v>298</v>
@@ -31471,10 +31468,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -31583,10 +31580,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -31697,10 +31694,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -31726,10 +31723,10 @@
         <v>203</v>
       </c>
       <c r="L247" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="M247" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="M247" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -31760,7 +31757,7 @@
       </c>
       <c r="Y247" s="2"/>
       <c r="Z247" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AA247" t="s" s="2">
         <v>77</v>
@@ -31778,7 +31775,7 @@
         <v>77</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>88</v>
@@ -31796,10 +31793,10 @@
         <v>77</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AM247" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AN247" t="s" s="2">
         <v>77</v>
@@ -31807,10 +31804,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -31919,10 +31916,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -32033,10 +32030,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -32149,10 +32146,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -32261,10 +32258,10 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -32375,10 +32372,10 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -32404,10 +32401,10 @@
         <v>102</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="N253" t="s" s="2">
         <v>233</v>
@@ -32491,10 +32488,10 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -32605,10 +32602,10 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -32719,10 +32716,10 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -32748,10 +32745,10 @@
         <v>178</v>
       </c>
       <c r="L256" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="M256" t="s" s="2">
         <v>948</v>
-      </c>
-      <c r="M256" t="s" s="2">
-        <v>949</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" t="s" s="2">
@@ -32833,10 +32830,10 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -32949,10 +32946,10 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -32978,7 +32975,7 @@
         <v>178</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M258" t="s" s="2">
         <v>276</v>
@@ -33065,10 +33062,10 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -33094,14 +33091,14 @@
         <v>305</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P259" t="s" s="2">
         <v>77</v>
@@ -33150,7 +33147,7 @@
         <v>77</v>
       </c>
       <c r="AF259" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AG259" t="s" s="2">
         <v>78</v>
@@ -33168,10 +33165,10 @@
         <v>77</v>
       </c>
       <c r="AL259" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AM259" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="AM259" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="AN259" t="s" s="2">
         <v>77</v>
@@ -33179,10 +33176,10 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -33291,10 +33288,10 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -33405,10 +33402,10 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -33431,16 +33428,16 @@
         <v>89</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="L262" t="s" s="2">
+      <c r="M262" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="M262" t="s" s="2">
+      <c r="N262" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N262" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="O262" s="2"/>
       <c r="P262" t="s" s="2">
@@ -33490,25 +33487,25 @@
         <v>77</v>
       </c>
       <c r="AF262" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="AG262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH262" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI262" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="AG262" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH262" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI262" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="AJ262" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK262" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AL262" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="AL262" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>77</v>
@@ -33519,10 +33516,10 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -33545,69 +33542,69 @@
         <v>89</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L263" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="M263" t="s" s="2">
         <v>828</v>
       </c>
-      <c r="M263" t="s" s="2">
+      <c r="N263" t="s" s="2">
         <v>829</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>830</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q263" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="R263" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S263" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T263" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U263" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V263" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W263" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X263" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y263" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z263" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA263" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB263" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC263" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD263" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE263" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF263" t="s" s="2">
         <v>831</v>
       </c>
-      <c r="R263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF263" t="s" s="2">
-        <v>832</v>
-      </c>
       <c r="AG263" t="s" s="2">
         <v>78</v>
       </c>
@@ -33615,16 +33612,16 @@
         <v>88</v>
       </c>
       <c r="AI263" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AJ263" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK263" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="AL263" t="s" s="2">
         <v>833</v>
-      </c>
-      <c r="AL263" t="s" s="2">
-        <v>834</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>77</v>
@@ -33635,10 +33632,10 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -33664,10 +33661,10 @@
         <v>314</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
@@ -33718,7 +33715,7 @@
         <v>77</v>
       </c>
       <c r="AF264" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG264" t="s" s="2">
         <v>78</v>
@@ -33736,7 +33733,7 @@
         <v>77</v>
       </c>
       <c r="AL264" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AM264" t="s" s="2">
         <v>77</v>
@@ -33747,10 +33744,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -33859,10 +33856,10 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -33973,10 +33970,10 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -34002,13 +33999,13 @@
         <v>178</v>
       </c>
       <c r="L267" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="M267" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="M267" t="s" s="2">
+      <c r="N267" t="s" s="2">
         <v>845</v>
-      </c>
-      <c r="N267" t="s" s="2">
-        <v>846</v>
       </c>
       <c r="O267" s="2"/>
       <c r="P267" t="s" s="2">
@@ -34058,16 +34055,16 @@
         <v>77</v>
       </c>
       <c r="AF267" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="AG267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH267" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI267" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="AG267" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH267" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI267" t="s" s="2">
-        <v>848</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>100</v>
@@ -34087,10 +34084,10 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -34116,13 +34113,13 @@
         <v>102</v>
       </c>
       <c r="L268" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="M268" t="s" s="2">
         <v>851</v>
       </c>
-      <c r="M268" t="s" s="2">
+      <c r="N268" t="s" s="2">
         <v>852</v>
-      </c>
-      <c r="N268" t="s" s="2">
-        <v>853</v>
       </c>
       <c r="O268" s="2"/>
       <c r="P268" t="s" s="2">
@@ -34151,28 +34148,28 @@
         <v>365</v>
       </c>
       <c r="Y268" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="Z268" t="s" s="2">
         <v>854</v>
       </c>
-      <c r="Z268" t="s" s="2">
+      <c r="AA268" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB268" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC268" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD268" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE268" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF268" t="s" s="2">
         <v>855</v>
-      </c>
-      <c r="AA268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF268" t="s" s="2">
-        <v>856</v>
       </c>
       <c r="AG268" t="s" s="2">
         <v>78</v>
@@ -34201,10 +34198,10 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -34230,13 +34227,13 @@
         <v>163</v>
       </c>
       <c r="L269" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="M269" t="s" s="2">
         <v>859</v>
       </c>
-      <c r="M269" t="s" s="2">
+      <c r="N269" t="s" s="2">
         <v>860</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>861</v>
       </c>
       <c r="O269" s="2"/>
       <c r="P269" t="s" s="2">
@@ -34286,7 +34283,7 @@
         <v>77</v>
       </c>
       <c r="AF269" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AG269" t="s" s="2">
         <v>78</v>
@@ -34304,7 +34301,7 @@
         <v>77</v>
       </c>
       <c r="AL269" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AM269" t="s" s="2">
         <v>77</v>
@@ -34315,10 +34312,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -34344,13 +34341,13 @@
         <v>178</v>
       </c>
       <c r="L270" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="M270" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="N270" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="M270" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="N270" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="O270" s="2"/>
       <c r="P270" t="s" s="2">
@@ -34400,7 +34397,7 @@
         <v>77</v>
       </c>
       <c r="AF270" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AG270" t="s" s="2">
         <v>78</v>
@@ -34429,13 +34426,13 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="B271" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="C271" t="s" s="2">
         <v>966</v>
-      </c>
-      <c r="B271" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="C271" t="s" s="2">
-        <v>967</v>
       </c>
       <c r="D271" t="s" s="2">
         <v>77</v>
@@ -34457,13 +34454,13 @@
         <v>77</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L271" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="M271" t="s" s="2">
         <v>968</v>
-      </c>
-      <c r="M271" t="s" s="2">
-        <v>969</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
@@ -34514,7 +34511,7 @@
         <v>77</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AG271" t="s" s="2">
         <v>78</v>
@@ -34529,13 +34526,13 @@
         <v>100</v>
       </c>
       <c r="AK271" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AL271" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="AL271" t="s" s="2">
+      <c r="AM271" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="AM271" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="AN271" t="s" s="2">
         <v>77</v>
@@ -34543,10 +34540,10 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -34655,10 +34652,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -34769,14 +34766,14 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E274" s="2"/>
       <c r="F274" t="s" s="2">
@@ -34798,10 +34795,10 @@
         <v>133</v>
       </c>
       <c r="L274" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M274" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="M274" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="N274" t="s" s="2">
         <v>158</v>
@@ -34856,7 +34853,7 @@
         <v>77</v>
       </c>
       <c r="AF274" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG274" t="s" s="2">
         <v>78</v>
@@ -34885,10 +34882,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -34914,14 +34911,14 @@
         <v>163</v>
       </c>
       <c r="L275" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="M275" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="M275" t="s" s="2">
-        <v>728</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P275" t="s" s="2">
         <v>77</v>
@@ -34970,7 +34967,7 @@
         <v>77</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>78</v>
@@ -34988,7 +34985,7 @@
         <v>77</v>
       </c>
       <c r="AL275" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AM275" t="s" s="2">
         <v>77</v>
@@ -34999,10 +34996,10 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -35111,10 +35108,10 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -35225,10 +35222,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -35341,10 +35338,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -35457,10 +35454,10 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -35486,13 +35483,13 @@
         <v>102</v>
       </c>
       <c r="L280" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="M280" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M280" t="s" s="2">
+      <c r="N280" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N280" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>287</v>
@@ -35573,10 +35570,10 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -35602,10 +35599,10 @@
         <v>178</v>
       </c>
       <c r="L281" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="M281" t="s" s="2">
         <v>980</v>
-      </c>
-      <c r="M281" t="s" s="2">
-        <v>981</v>
       </c>
       <c r="N281" t="s" s="2">
         <v>297</v>
@@ -35619,7 +35616,7 @@
         <v>77</v>
       </c>
       <c r="S281" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="T281" t="s" s="2">
         <v>298</v>
@@ -35687,10 +35684,10 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -35799,10 +35796,10 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -35913,10 +35910,10 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -35942,10 +35939,10 @@
         <v>203</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N284" s="2"/>
       <c r="O284" s="2"/>
@@ -35976,7 +35973,7 @@
       </c>
       <c r="Y284" s="2"/>
       <c r="Z284" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AA284" t="s" s="2">
         <v>77</v>
@@ -35994,7 +35991,7 @@
         <v>77</v>
       </c>
       <c r="AF284" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG284" t="s" s="2">
         <v>88</v>
@@ -36012,10 +36009,10 @@
         <v>77</v>
       </c>
       <c r="AL284" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AM284" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AN284" t="s" s="2">
         <v>77</v>
@@ -36023,10 +36020,10 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -36135,10 +36132,10 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -36249,10 +36246,10 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -36365,10 +36362,10 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -36394,7 +36391,7 @@
         <v>178</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M288" t="s" s="2">
         <v>276</v>
@@ -36481,10 +36478,10 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -36510,14 +36507,14 @@
         <v>305</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P289" t="s" s="2">
         <v>77</v>
@@ -36566,7 +36563,7 @@
         <v>77</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AG289" t="s" s="2">
         <v>78</v>
@@ -36584,10 +36581,10 @@
         <v>77</v>
       </c>
       <c r="AL289" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AM289" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="AM289" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="AN289" t="s" s="2">
         <v>77</v>
@@ -36595,10 +36592,10 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -36707,10 +36704,10 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -36821,10 +36818,10 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -36847,16 +36844,16 @@
         <v>89</v>
       </c>
       <c r="K292" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L292" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="L292" t="s" s="2">
+      <c r="M292" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="M292" t="s" s="2">
+      <c r="N292" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N292" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="O292" s="2"/>
       <c r="P292" t="s" s="2">
@@ -36906,25 +36903,25 @@
         <v>77</v>
       </c>
       <c r="AF292" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="AG292" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH292" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI292" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="AG292" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH292" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI292" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="AJ292" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK292" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AL292" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="AL292" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="AM292" t="s" s="2">
         <v>77</v>
@@ -36935,10 +36932,10 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -36961,69 +36958,69 @@
         <v>89</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L293" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="M293" t="s" s="2">
         <v>828</v>
       </c>
-      <c r="M293" t="s" s="2">
+      <c r="N293" t="s" s="2">
         <v>829</v>
-      </c>
-      <c r="N293" t="s" s="2">
-        <v>830</v>
       </c>
       <c r="O293" s="2"/>
       <c r="P293" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q293" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="R293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF293" t="s" s="2">
         <v>831</v>
       </c>
-      <c r="R293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF293" t="s" s="2">
-        <v>832</v>
-      </c>
       <c r="AG293" t="s" s="2">
         <v>78</v>
       </c>
@@ -37031,16 +37028,16 @@
         <v>88</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AJ293" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK293" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="AL293" t="s" s="2">
         <v>833</v>
-      </c>
-      <c r="AL293" t="s" s="2">
-        <v>834</v>
       </c>
       <c r="AM293" t="s" s="2">
         <v>77</v>
@@ -37051,10 +37048,10 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -37080,10 +37077,10 @@
         <v>314</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N294" s="2"/>
       <c r="O294" s="2"/>
@@ -37134,7 +37131,7 @@
         <v>77</v>
       </c>
       <c r="AF294" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG294" t="s" s="2">
         <v>78</v>
@@ -37152,7 +37149,7 @@
         <v>77</v>
       </c>
       <c r="AL294" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AM294" t="s" s="2">
         <v>77</v>
@@ -37163,10 +37160,10 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -37275,10 +37272,10 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -37389,10 +37386,10 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -37418,13 +37415,13 @@
         <v>178</v>
       </c>
       <c r="L297" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="M297" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="M297" t="s" s="2">
+      <c r="N297" t="s" s="2">
         <v>845</v>
-      </c>
-      <c r="N297" t="s" s="2">
-        <v>846</v>
       </c>
       <c r="O297" s="2"/>
       <c r="P297" t="s" s="2">
@@ -37474,16 +37471,16 @@
         <v>77</v>
       </c>
       <c r="AF297" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="AG297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH297" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI297" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="AG297" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH297" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI297" t="s" s="2">
-        <v>848</v>
       </c>
       <c r="AJ297" t="s" s="2">
         <v>100</v>
@@ -37503,10 +37500,10 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -37532,13 +37529,13 @@
         <v>102</v>
       </c>
       <c r="L298" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="M298" t="s" s="2">
         <v>851</v>
       </c>
-      <c r="M298" t="s" s="2">
+      <c r="N298" t="s" s="2">
         <v>852</v>
-      </c>
-      <c r="N298" t="s" s="2">
-        <v>853</v>
       </c>
       <c r="O298" s="2"/>
       <c r="P298" t="s" s="2">
@@ -37567,28 +37564,28 @@
         <v>365</v>
       </c>
       <c r="Y298" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="Z298" t="s" s="2">
         <v>854</v>
       </c>
-      <c r="Z298" t="s" s="2">
+      <c r="AA298" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB298" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC298" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD298" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE298" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF298" t="s" s="2">
         <v>855</v>
-      </c>
-      <c r="AA298" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB298" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC298" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD298" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE298" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF298" t="s" s="2">
-        <v>856</v>
       </c>
       <c r="AG298" t="s" s="2">
         <v>78</v>
@@ -37617,10 +37614,10 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -37646,13 +37643,13 @@
         <v>163</v>
       </c>
       <c r="L299" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="M299" t="s" s="2">
         <v>859</v>
       </c>
-      <c r="M299" t="s" s="2">
+      <c r="N299" t="s" s="2">
         <v>860</v>
-      </c>
-      <c r="N299" t="s" s="2">
-        <v>861</v>
       </c>
       <c r="O299" s="2"/>
       <c r="P299" t="s" s="2">
@@ -37702,7 +37699,7 @@
         <v>77</v>
       </c>
       <c r="AF299" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AG299" t="s" s="2">
         <v>78</v>
@@ -37720,7 +37717,7 @@
         <v>77</v>
       </c>
       <c r="AL299" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AM299" t="s" s="2">
         <v>77</v>
@@ -37731,10 +37728,10 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
@@ -37760,13 +37757,13 @@
         <v>178</v>
       </c>
       <c r="L300" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="M300" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="N300" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="M300" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="N300" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" t="s" s="2">
@@ -37816,7 +37813,7 @@
         <v>77</v>
       </c>
       <c r="AF300" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AG300" t="s" s="2">
         <v>78</v>
@@ -37845,13 +37842,13 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B301" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="C301" t="s" s="2">
         <v>1005</v>
-      </c>
-      <c r="B301" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="C301" t="s" s="2">
-        <v>1006</v>
       </c>
       <c r="D301" t="s" s="2">
         <v>77</v>
@@ -37873,13 +37870,13 @@
         <v>77</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N301" s="2"/>
       <c r="O301" s="2"/>
@@ -37930,7 +37927,7 @@
         <v>77</v>
       </c>
       <c r="AF301" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AG301" t="s" s="2">
         <v>78</v>
@@ -37945,13 +37942,13 @@
         <v>100</v>
       </c>
       <c r="AK301" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AL301" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="AL301" t="s" s="2">
+      <c r="AM301" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="AM301" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="AN301" t="s" s="2">
         <v>77</v>
@@ -37959,10 +37956,10 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -38071,10 +38068,10 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -38185,14 +38182,14 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E304" s="2"/>
       <c r="F304" t="s" s="2">
@@ -38214,10 +38211,10 @@
         <v>133</v>
       </c>
       <c r="L304" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M304" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="M304" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="N304" t="s" s="2">
         <v>158</v>
@@ -38272,7 +38269,7 @@
         <v>77</v>
       </c>
       <c r="AF304" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG304" t="s" s="2">
         <v>78</v>
@@ -38301,10 +38298,10 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -38330,14 +38327,14 @@
         <v>163</v>
       </c>
       <c r="L305" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="M305" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="M305" t="s" s="2">
-        <v>728</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P305" t="s" s="2">
         <v>77</v>
@@ -38386,7 +38383,7 @@
         <v>77</v>
       </c>
       <c r="AF305" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AG305" t="s" s="2">
         <v>78</v>
@@ -38404,7 +38401,7 @@
         <v>77</v>
       </c>
       <c r="AL305" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AM305" t="s" s="2">
         <v>77</v>
@@ -38415,10 +38412,10 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -38527,10 +38524,10 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -38641,10 +38638,10 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -38757,10 +38754,10 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -38873,10 +38870,10 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -38902,13 +38899,13 @@
         <v>102</v>
       </c>
       <c r="L310" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="M310" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M310" t="s" s="2">
+      <c r="N310" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N310" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>287</v>
@@ -38989,10 +38986,10 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -39018,10 +39015,10 @@
         <v>178</v>
       </c>
       <c r="L311" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="M311" t="s" s="2">
         <v>980</v>
-      </c>
-      <c r="M311" t="s" s="2">
-        <v>981</v>
       </c>
       <c r="N311" t="s" s="2">
         <v>297</v>
@@ -39035,7 +39032,7 @@
         <v>77</v>
       </c>
       <c r="S311" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="T311" t="s" s="2">
         <v>298</v>
@@ -39103,10 +39100,10 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -39215,10 +39212,10 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" t="s" s="2">
@@ -39329,10 +39326,10 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -39358,10 +39355,10 @@
         <v>203</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N314" s="2"/>
       <c r="O314" s="2"/>
@@ -39392,7 +39389,7 @@
       </c>
       <c r="Y314" s="2"/>
       <c r="Z314" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA314" t="s" s="2">
         <v>77</v>
@@ -39410,7 +39407,7 @@
         <v>77</v>
       </c>
       <c r="AF314" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG314" t="s" s="2">
         <v>88</v>
@@ -39428,10 +39425,10 @@
         <v>77</v>
       </c>
       <c r="AL314" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AM314" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AN314" t="s" s="2">
         <v>77</v>
@@ -39439,10 +39436,10 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -39551,10 +39548,10 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
@@ -39665,10 +39662,10 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -39781,10 +39778,10 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" t="s" s="2">
@@ -39810,7 +39807,7 @@
         <v>178</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M318" t="s" s="2">
         <v>276</v>
@@ -39897,10 +39894,10 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" t="s" s="2">
@@ -39926,14 +39923,14 @@
         <v>305</v>
       </c>
       <c r="L319" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="M319" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="M319" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P319" t="s" s="2">
         <v>77</v>
@@ -39982,7 +39979,7 @@
         <v>77</v>
       </c>
       <c r="AF319" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AG319" t="s" s="2">
         <v>78</v>
@@ -40000,10 +39997,10 @@
         <v>77</v>
       </c>
       <c r="AL319" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AM319" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="AM319" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="AN319" t="s" s="2">
         <v>77</v>
@@ -40011,10 +40008,10 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -40040,10 +40037,10 @@
         <v>314</v>
       </c>
       <c r="L320" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="M320" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="M320" t="s" s="2">
-        <v>745</v>
       </c>
       <c r="N320" s="2"/>
       <c r="O320" s="2"/>
@@ -40094,7 +40091,7 @@
         <v>77</v>
       </c>
       <c r="AF320" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG320" t="s" s="2">
         <v>78</v>
@@ -40112,7 +40109,7 @@
         <v>77</v>
       </c>
       <c r="AL320" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AM320" t="s" s="2">
         <v>77</v>
@@ -40123,13 +40120,13 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="B321" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="C321" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="B321" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="C321" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>77</v>
@@ -40151,13 +40148,13 @@
         <v>77</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
@@ -40208,7 +40205,7 @@
         <v>77</v>
       </c>
       <c r="AF321" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AG321" t="s" s="2">
         <v>78</v>
@@ -40223,13 +40220,13 @@
         <v>100</v>
       </c>
       <c r="AK321" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AL321" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="AL321" t="s" s="2">
+      <c r="AM321" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="AM321" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="AN321" t="s" s="2">
         <v>77</v>
@@ -40237,10 +40234,10 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -40349,10 +40346,10 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
@@ -40463,14 +40460,14 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E324" s="2"/>
       <c r="F324" t="s" s="2">
@@ -40492,10 +40489,10 @@
         <v>133</v>
       </c>
       <c r="L324" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M324" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="M324" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="N324" t="s" s="2">
         <v>158</v>
@@ -40550,7 +40547,7 @@
         <v>77</v>
       </c>
       <c r="AF324" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG324" t="s" s="2">
         <v>78</v>
@@ -40579,10 +40576,10 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" t="s" s="2">
@@ -40608,14 +40605,14 @@
         <v>163</v>
       </c>
       <c r="L325" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="M325" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="M325" t="s" s="2">
-        <v>728</v>
       </c>
       <c r="N325" s="2"/>
       <c r="O325" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P325" t="s" s="2">
         <v>77</v>
@@ -40664,7 +40661,7 @@
         <v>77</v>
       </c>
       <c r="AF325" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AG325" t="s" s="2">
         <v>78</v>
@@ -40682,7 +40679,7 @@
         <v>77</v>
       </c>
       <c r="AL325" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AM325" t="s" s="2">
         <v>77</v>
@@ -40693,10 +40690,10 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" t="s" s="2">
@@ -40805,10 +40802,10 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
@@ -40919,10 +40916,10 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" t="s" s="2">
@@ -41035,10 +41032,10 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -41151,10 +41148,10 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -41180,13 +41177,13 @@
         <v>102</v>
       </c>
       <c r="L330" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="M330" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M330" t="s" s="2">
+      <c r="N330" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N330" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>287</v>
@@ -41267,10 +41264,10 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -41296,10 +41293,10 @@
         <v>178</v>
       </c>
       <c r="L331" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="M331" t="s" s="2">
         <v>980</v>
-      </c>
-      <c r="M331" t="s" s="2">
-        <v>981</v>
       </c>
       <c r="N331" t="s" s="2">
         <v>297</v>
@@ -41313,7 +41310,7 @@
         <v>77</v>
       </c>
       <c r="S331" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="T331" t="s" s="2">
         <v>298</v>
@@ -41381,10 +41378,10 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -41493,10 +41490,10 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" t="s" s="2">
@@ -41607,10 +41604,10 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -41636,10 +41633,10 @@
         <v>203</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N334" s="2"/>
       <c r="O334" s="2"/>
@@ -41670,7 +41667,7 @@
       </c>
       <c r="Y334" s="2"/>
       <c r="Z334" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AA334" t="s" s="2">
         <v>77</v>
@@ -41688,7 +41685,7 @@
         <v>77</v>
       </c>
       <c r="AF334" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG334" t="s" s="2">
         <v>88</v>
@@ -41706,10 +41703,10 @@
         <v>77</v>
       </c>
       <c r="AL334" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AM334" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AN334" t="s" s="2">
         <v>77</v>
@@ -41717,10 +41714,10 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -41829,10 +41826,10 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s" s="2">
@@ -41943,10 +41940,10 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
@@ -42059,10 +42056,10 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" t="s" s="2">
@@ -42088,7 +42085,7 @@
         <v>178</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="M338" t="s" s="2">
         <v>276</v>
@@ -42175,10 +42172,10 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" t="s" s="2">
@@ -42204,14 +42201,14 @@
         <v>305</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N339" s="2"/>
       <c r="O339" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P339" t="s" s="2">
         <v>77</v>
@@ -42260,7 +42257,7 @@
         <v>77</v>
       </c>
       <c r="AF339" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AG339" t="s" s="2">
         <v>78</v>
@@ -42278,10 +42275,10 @@
         <v>77</v>
       </c>
       <c r="AL339" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AM339" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="AM339" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="AN339" t="s" s="2">
         <v>77</v>
@@ -42289,10 +42286,10 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s" s="2">
@@ -42401,10 +42398,10 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" t="s" s="2">
@@ -42515,10 +42512,10 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" t="s" s="2">
@@ -42541,16 +42538,16 @@
         <v>89</v>
       </c>
       <c r="K342" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L342" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="L342" t="s" s="2">
+      <c r="M342" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="M342" t="s" s="2">
+      <c r="N342" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N342" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="O342" s="2"/>
       <c r="P342" t="s" s="2">
@@ -42600,25 +42597,25 @@
         <v>77</v>
       </c>
       <c r="AF342" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="AG342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH342" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI342" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="AG342" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH342" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI342" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="AJ342" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK342" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AL342" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="AL342" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="AM342" t="s" s="2">
         <v>77</v>
@@ -42629,10 +42626,10 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
@@ -42655,69 +42652,69 @@
         <v>89</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L343" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="M343" t="s" s="2">
         <v>828</v>
       </c>
-      <c r="M343" t="s" s="2">
+      <c r="N343" t="s" s="2">
         <v>829</v>
-      </c>
-      <c r="N343" t="s" s="2">
-        <v>830</v>
       </c>
       <c r="O343" s="2"/>
       <c r="P343" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q343" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="R343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF343" t="s" s="2">
         <v>831</v>
       </c>
-      <c r="R343" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S343" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T343" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U343" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V343" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W343" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X343" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y343" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z343" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA343" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB343" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC343" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD343" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE343" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF343" t="s" s="2">
-        <v>832</v>
-      </c>
       <c r="AG343" t="s" s="2">
         <v>78</v>
       </c>
@@ -42725,16 +42722,16 @@
         <v>88</v>
       </c>
       <c r="AI343" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AJ343" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK343" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="AL343" t="s" s="2">
         <v>833</v>
-      </c>
-      <c r="AL343" t="s" s="2">
-        <v>834</v>
       </c>
       <c r="AM343" t="s" s="2">
         <v>77</v>
@@ -42745,10 +42742,10 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" t="s" s="2">
@@ -42774,10 +42771,10 @@
         <v>314</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N344" s="2"/>
       <c r="O344" s="2"/>
@@ -42828,7 +42825,7 @@
         <v>77</v>
       </c>
       <c r="AF344" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG344" t="s" s="2">
         <v>78</v>
@@ -42846,7 +42843,7 @@
         <v>77</v>
       </c>
       <c r="AL344" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AM344" t="s" s="2">
         <v>77</v>
@@ -42857,10 +42854,10 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" t="s" s="2">
@@ -42969,10 +42966,10 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" t="s" s="2">
@@ -43083,10 +43080,10 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" t="s" s="2">
@@ -43112,13 +43109,13 @@
         <v>178</v>
       </c>
       <c r="L347" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="M347" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="M347" t="s" s="2">
+      <c r="N347" t="s" s="2">
         <v>845</v>
-      </c>
-      <c r="N347" t="s" s="2">
-        <v>846</v>
       </c>
       <c r="O347" s="2"/>
       <c r="P347" t="s" s="2">
@@ -43168,16 +43165,16 @@
         <v>77</v>
       </c>
       <c r="AF347" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="AG347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH347" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI347" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="AG347" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH347" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI347" t="s" s="2">
-        <v>848</v>
       </c>
       <c r="AJ347" t="s" s="2">
         <v>100</v>
@@ -43197,10 +43194,10 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" t="s" s="2">
@@ -43226,13 +43223,13 @@
         <v>102</v>
       </c>
       <c r="L348" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="M348" t="s" s="2">
         <v>851</v>
       </c>
-      <c r="M348" t="s" s="2">
+      <c r="N348" t="s" s="2">
         <v>852</v>
-      </c>
-      <c r="N348" t="s" s="2">
-        <v>853</v>
       </c>
       <c r="O348" s="2"/>
       <c r="P348" t="s" s="2">
@@ -43261,28 +43258,28 @@
         <v>365</v>
       </c>
       <c r="Y348" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="Z348" t="s" s="2">
         <v>854</v>
       </c>
-      <c r="Z348" t="s" s="2">
+      <c r="AA348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF348" t="s" s="2">
         <v>855</v>
-      </c>
-      <c r="AA348" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB348" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC348" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD348" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE348" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF348" t="s" s="2">
-        <v>856</v>
       </c>
       <c r="AG348" t="s" s="2">
         <v>78</v>
@@ -43311,10 +43308,10 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" t="s" s="2">
@@ -43340,13 +43337,13 @@
         <v>163</v>
       </c>
       <c r="L349" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="M349" t="s" s="2">
         <v>859</v>
       </c>
-      <c r="M349" t="s" s="2">
+      <c r="N349" t="s" s="2">
         <v>860</v>
-      </c>
-      <c r="N349" t="s" s="2">
-        <v>861</v>
       </c>
       <c r="O349" s="2"/>
       <c r="P349" t="s" s="2">
@@ -43396,7 +43393,7 @@
         <v>77</v>
       </c>
       <c r="AF349" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AG349" t="s" s="2">
         <v>78</v>
@@ -43414,7 +43411,7 @@
         <v>77</v>
       </c>
       <c r="AL349" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AM349" t="s" s="2">
         <v>77</v>
@@ -43425,10 +43422,10 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" t="s" s="2">
@@ -43454,13 +43451,13 @@
         <v>178</v>
       </c>
       <c r="L350" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="N350" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="M350" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="N350" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="O350" s="2"/>
       <c r="P350" t="s" s="2">
@@ -43510,7 +43507,7 @@
         <v>77</v>
       </c>
       <c r="AF350" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AG350" t="s" s="2">
         <v>78</v>
@@ -43539,10 +43536,10 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" t="s" s="2">
@@ -43568,16 +43565,16 @@
         <v>203</v>
       </c>
       <c r="L351" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="M351" t="s" s="2">
         <v>1067</v>
       </c>
-      <c r="M351" t="s" s="2">
+      <c r="N351" t="s" s="2">
         <v>1068</v>
       </c>
-      <c r="N351" t="s" s="2">
+      <c r="O351" t="s" s="2">
         <v>1069</v>
-      </c>
-      <c r="O351" t="s" s="2">
-        <v>1070</v>
       </c>
       <c r="P351" t="s" s="2">
         <v>77</v>
@@ -43626,7 +43623,7 @@
         <v>77</v>
       </c>
       <c r="AF351" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AG351" t="s" s="2">
         <v>78</v>
@@ -43641,13 +43638,13 @@
         <v>100</v>
       </c>
       <c r="AK351" t="s" s="2">
+        <v>1070</v>
+      </c>
+      <c r="AL351" t="s" s="2">
         <v>1071</v>
       </c>
-      <c r="AL351" t="s" s="2">
+      <c r="AM351" t="s" s="2">
         <v>1072</v>
-      </c>
-      <c r="AM351" t="s" s="2">
-        <v>1073</v>
       </c>
       <c r="AN351" t="s" s="2">
         <v>77</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12654" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12654" uniqueCount="1076">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -531,7 +531,7 @@
 </t>
   </si>
   <si>
-    <t>Identificador de identidad del Profesional.
+    <t>Identificador de identidad del Profesional.
 Corresponde a tres slices:</t>
   </si>
   <si>
@@ -3019,6 +3019,9 @@
     <t>Practitioner.qualification:EspecialidadOdontologica.identifier.type</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Practitioner.qualification:EspecialidadOdontologica.identifier.system</t>
   </si>
   <si>
@@ -3040,6 +3043,10 @@
     <t>Practitioner.qualification:EspecialidadOdontologica.identifier.assigner</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
     <t>Practitioner.qualification:EspecialidadOdontologica.code</t>
   </si>
   <si>
@@ -3092,6 +3099,9 @@
   </si>
   <si>
     <t>Practitioner.qualification:EspecialidadOdontologica.issuer.type</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Practitioner.qualification:EspecialidadOdontologica.issuer.identifier</t>
@@ -3633,17 +3643,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.01953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.82421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.0234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.8671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.46875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3652,26 +3662,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.6953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.1640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.12109375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="224.48046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.8671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.17578125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="200.65234375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="103.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="50.25390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="92.15234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="89.40625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="45.9296875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -35407,7 +35417,7 @@
         <v>366</v>
       </c>
       <c r="Z279" t="s" s="2">
-        <v>367</v>
+        <v>977</v>
       </c>
       <c r="AA279" t="s" s="2">
         <v>77</v>
@@ -35454,7 +35464,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>768</v>
@@ -35570,7 +35580,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>773</v>
@@ -35599,10 +35609,10 @@
         <v>178</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="N281" t="s" s="2">
         <v>297</v>
@@ -35616,7 +35626,7 @@
         <v>77</v>
       </c>
       <c r="S281" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="T281" t="s" s="2">
         <v>298</v>
@@ -35684,7 +35694,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>777</v>
@@ -35796,7 +35806,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>779</v>
@@ -35822,7 +35832,7 @@
         <v>89</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>314</v>
+        <v>985</v>
       </c>
       <c r="L283" t="s" s="2">
         <v>315</v>
@@ -35910,7 +35920,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>730</v>
@@ -35939,7 +35949,7 @@
         <v>203</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M284" t="s" s="2">
         <v>732</v>
@@ -35973,7 +35983,7 @@
       </c>
       <c r="Y284" s="2"/>
       <c r="Z284" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="AA284" t="s" s="2">
         <v>77</v>
@@ -36020,7 +36030,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>783</v>
@@ -36132,7 +36142,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>785</v>
@@ -36246,7 +36256,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>787</v>
@@ -36362,7 +36372,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>807</v>
@@ -36391,7 +36401,7 @@
         <v>178</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="M288" t="s" s="2">
         <v>276</v>
@@ -36478,7 +36488,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>736</v>
@@ -36592,7 +36602,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>812</v>
@@ -36704,7 +36714,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>814</v>
@@ -36818,7 +36828,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>816</v>
@@ -36932,7 +36942,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>826</v>
@@ -37048,7 +37058,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>742</v>
@@ -37160,7 +37170,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>838</v>
@@ -37272,7 +37282,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>840</v>
@@ -37386,7 +37396,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>842</v>
@@ -37500,7 +37510,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>849</v>
@@ -37567,7 +37577,7 @@
         <v>853</v>
       </c>
       <c r="Z298" t="s" s="2">
-        <v>854</v>
+        <v>1004</v>
       </c>
       <c r="AA298" t="s" s="2">
         <v>77</v>
@@ -37614,7 +37624,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>857</v>
@@ -37728,7 +37738,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>864</v>
@@ -37842,13 +37852,13 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>709</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D301" t="s" s="2">
         <v>77</v>
@@ -37873,7 +37883,7 @@
         <v>710</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="M301" t="s" s="2">
         <v>968</v>
@@ -37956,7 +37966,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>718</v>
@@ -38068,7 +38078,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>719</v>
@@ -38182,7 +38192,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>720</v>
@@ -38298,7 +38308,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>725</v>
@@ -38412,7 +38422,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>760</v>
@@ -38524,7 +38534,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>762</v>
@@ -38638,7 +38648,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>764</v>
@@ -38754,7 +38764,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>766</v>
@@ -38823,7 +38833,7 @@
         <v>366</v>
       </c>
       <c r="Z309" t="s" s="2">
-        <v>367</v>
+        <v>977</v>
       </c>
       <c r="AA309" t="s" s="2">
         <v>77</v>
@@ -38870,7 +38880,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>768</v>
@@ -38986,7 +38996,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>773</v>
@@ -39015,10 +39025,10 @@
         <v>178</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="N311" t="s" s="2">
         <v>297</v>
@@ -39032,7 +39042,7 @@
         <v>77</v>
       </c>
       <c r="S311" t="s" s="2">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="T311" t="s" s="2">
         <v>298</v>
@@ -39100,7 +39110,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>777</v>
@@ -39212,7 +39222,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>779</v>
@@ -39238,7 +39248,7 @@
         <v>89</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>314</v>
+        <v>985</v>
       </c>
       <c r="L313" t="s" s="2">
         <v>315</v>
@@ -39326,7 +39336,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>730</v>
@@ -39355,7 +39365,7 @@
         <v>203</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="M314" t="s" s="2">
         <v>732</v>
@@ -39389,7 +39399,7 @@
       </c>
       <c r="Y314" s="2"/>
       <c r="Z314" t="s" s="2">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="AA314" t="s" s="2">
         <v>77</v>
@@ -39436,7 +39446,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>783</v>
@@ -39548,7 +39558,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>785</v>
@@ -39662,7 +39672,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>787</v>
@@ -39778,7 +39788,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>807</v>
@@ -39807,7 +39817,7 @@
         <v>178</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="M318" t="s" s="2">
         <v>276</v>
@@ -39894,7 +39904,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>736</v>
@@ -40008,7 +40018,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>742</v>
@@ -40120,13 +40130,13 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>709</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>77</v>
@@ -40151,7 +40161,7 @@
         <v>710</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="M321" t="s" s="2">
         <v>968</v>
@@ -40234,7 +40244,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>718</v>
@@ -40346,7 +40356,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>719</v>
@@ -40460,7 +40470,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>720</v>
@@ -40576,7 +40586,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>725</v>
@@ -40690,7 +40700,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>760</v>
@@ -40802,7 +40812,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>762</v>
@@ -40916,7 +40926,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>764</v>
@@ -41032,7 +41042,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>766</v>
@@ -41101,7 +41111,7 @@
         <v>366</v>
       </c>
       <c r="Z329" t="s" s="2">
-        <v>367</v>
+        <v>977</v>
       </c>
       <c r="AA329" t="s" s="2">
         <v>77</v>
@@ -41148,7 +41158,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>768</v>
@@ -41264,7 +41274,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>773</v>
@@ -41293,10 +41303,10 @@
         <v>178</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="N331" t="s" s="2">
         <v>297</v>
@@ -41310,7 +41320,7 @@
         <v>77</v>
       </c>
       <c r="S331" t="s" s="2">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="T331" t="s" s="2">
         <v>298</v>
@@ -41378,7 +41388,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>777</v>
@@ -41490,7 +41500,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>779</v>
@@ -41516,7 +41526,7 @@
         <v>89</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>314</v>
+        <v>985</v>
       </c>
       <c r="L333" t="s" s="2">
         <v>315</v>
@@ -41604,7 +41614,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>730</v>
@@ -41633,7 +41643,7 @@
         <v>203</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="M334" t="s" s="2">
         <v>732</v>
@@ -41667,7 +41677,7 @@
       </c>
       <c r="Y334" s="2"/>
       <c r="Z334" t="s" s="2">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="AA334" t="s" s="2">
         <v>77</v>
@@ -41714,7 +41724,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>783</v>
@@ -41826,7 +41836,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>785</v>
@@ -41940,7 +41950,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>787</v>
@@ -42056,7 +42066,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>807</v>
@@ -42085,7 +42095,7 @@
         <v>178</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="M338" t="s" s="2">
         <v>276</v>
@@ -42172,7 +42182,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>736</v>
@@ -42286,7 +42296,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>812</v>
@@ -42398,7 +42408,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>814</v>
@@ -42512,7 +42522,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>816</v>
@@ -42626,7 +42636,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>826</v>
@@ -42742,7 +42752,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>742</v>
@@ -42854,7 +42864,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>838</v>
@@ -42966,7 +42976,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>840</v>
@@ -43080,7 +43090,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>842</v>
@@ -43194,7 +43204,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>849</v>
@@ -43261,7 +43271,7 @@
         <v>853</v>
       </c>
       <c r="Z348" t="s" s="2">
-        <v>854</v>
+        <v>1004</v>
       </c>
       <c r="AA348" t="s" s="2">
         <v>77</v>
@@ -43308,7 +43318,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>857</v>
@@ -43422,7 +43432,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>864</v>
@@ -43536,10 +43546,10 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" t="s" s="2">
@@ -43565,16 +43575,16 @@
         <v>203</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="O351" t="s" s="2">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="P351" t="s" s="2">
         <v>77</v>
@@ -43623,7 +43633,7 @@
         <v>77</v>
       </c>
       <c r="AF351" t="s" s="2">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="AG351" t="s" s="2">
         <v>78</v>
@@ -43638,13 +43648,13 @@
         <v>100</v>
       </c>
       <c r="AK351" t="s" s="2">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="AL351" t="s" s="2">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="AM351" t="s" s="2">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="AN351" t="s" s="2">
         <v>77</v>
